--- a/output7/【河洛文讀注音-注音二式】《涼州詞》.xlsx
+++ b/output7/【河洛文讀注音-注音二式】《涼州詞》.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D4A56BA-17DA-48E8-A6AD-EADAE0DA8B3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F90E44FF-DD92-4802-9951-E3B78D4FB414}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28455" yWindow="1365" windowWidth="28080" windowHeight="13830" activeTab="4" xr2:uid="{25A76161-EFED-4AC8-8EAA-A42737AE1909}"/>
+    <workbookView xWindow="2355" yWindow="2085" windowWidth="21420" windowHeight="11325" activeTab="4" xr2:uid="{25A76161-EFED-4AC8-8EAA-A42737AE1909}"/>
   </bookViews>
   <sheets>
     <sheet name="env" sheetId="8" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2437" uniqueCount="1260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2437" uniqueCount="1261">
   <si>
     <t>Key</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -4297,6 +4297,9 @@
   <si>
     <t>diek8</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注音二式</t>
   </si>
 </sst>
 </file>
@@ -4695,7 +4698,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4858,6 +4861,16 @@
     <xf numFmtId="0" fontId="31" fillId="4" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
@@ -4872,19 +4885,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -6646,7 +6646,7 @@
   </sheetPr>
   <dimension ref="B1:D20"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
@@ -6799,7 +6799,7 @@
         <v>16</v>
       </c>
       <c r="C18" s="42" t="s">
-        <v>42</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="19" spans="2:3" ht="30">
@@ -7428,7 +7428,7 @@
   <dimension ref="A1:V2002"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="A25" sqref="A25"/>
@@ -7502,15 +7502,15 @@
     <row r="3" spans="1:22" s="15" customFormat="1" ht="60" customHeight="1">
       <c r="B3" s="12"/>
       <c r="C3" s="13"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
-      <c r="L3" s="61"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="56"/>
       <c r="M3" s="52"/>
       <c r="N3" s="52"/>
       <c r="O3" s="52"/>
@@ -7518,33 +7518,33 @@
       <c r="Q3" s="52"/>
       <c r="R3" s="52"/>
       <c r="T3" s="16"/>
-      <c r="V3" s="54" t="s">
+      <c r="V3" s="57" t="s">
         <v>1192</v>
       </c>
     </row>
     <row r="4" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B4" s="17"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60" t="s">
+      <c r="D4" s="55"/>
+      <c r="E4" s="55" t="s">
         <v>1193</v>
       </c>
-      <c r="F4" s="60" t="s">
+      <c r="F4" s="55" t="s">
         <v>1194</v>
       </c>
-      <c r="G4" s="60" t="s">
+      <c r="G4" s="55" t="s">
         <v>1195</v>
       </c>
-      <c r="H4" s="60"/>
-      <c r="I4" s="60" t="s">
+      <c r="H4" s="55"/>
+      <c r="I4" s="55" t="s">
         <v>1197</v>
       </c>
-      <c r="J4" s="60" t="s">
+      <c r="J4" s="55" t="s">
         <v>338</v>
       </c>
-      <c r="K4" s="60" t="s">
+      <c r="K4" s="55" t="s">
         <v>1199</v>
       </c>
-      <c r="L4" s="60"/>
+      <c r="L4" s="55"/>
       <c r="M4" s="50"/>
       <c r="N4" s="50"/>
       <c r="O4" s="50"/>
@@ -7552,37 +7552,37 @@
       <c r="Q4" s="50"/>
       <c r="R4" s="50"/>
       <c r="S4" s="18"/>
-      <c r="V4" s="55"/>
+      <c r="V4" s="58"/>
     </row>
     <row r="5" spans="1:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B5" s="19">
         <v>1</v>
       </c>
-      <c r="D5" s="59" t="s">
+      <c r="D5" s="54" t="s">
         <v>1166</v>
       </c>
-      <c r="E5" s="59" t="s">
+      <c r="E5" s="54" t="s">
         <v>1167</v>
       </c>
-      <c r="F5" s="59" t="s">
+      <c r="F5" s="54" t="s">
         <v>1168</v>
       </c>
-      <c r="G5" s="59" t="s">
+      <c r="G5" s="54" t="s">
         <v>1169</v>
       </c>
-      <c r="H5" s="59" t="s">
+      <c r="H5" s="54" t="s">
         <v>1170</v>
       </c>
-      <c r="I5" s="59" t="s">
+      <c r="I5" s="54" t="s">
         <v>1171</v>
       </c>
-      <c r="J5" s="59" t="s">
+      <c r="J5" s="54" t="s">
         <v>108</v>
       </c>
-      <c r="K5" s="59" t="s">
+      <c r="K5" s="54" t="s">
         <v>1172</v>
       </c>
-      <c r="L5" s="59" t="str">
+      <c r="L5" s="54" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
@@ -7594,7 +7594,7 @@
       <c r="Q5" s="39"/>
       <c r="R5" s="39"/>
       <c r="S5" s="20"/>
-      <c r="V5" s="55"/>
+      <c r="V5" s="58"/>
     </row>
     <row r="6" spans="1:22" s="24" customFormat="1" ht="36" customHeight="1">
       <c r="B6" s="21"/>
@@ -7627,20 +7627,20 @@
       <c r="Q6" s="51"/>
       <c r="R6" s="51"/>
       <c r="S6" s="23"/>
-      <c r="V6" s="55"/>
+      <c r="V6" s="58"/>
     </row>
     <row r="7" spans="1:22" s="28" customFormat="1" ht="60" customHeight="1">
       <c r="B7" s="25"/>
       <c r="C7" s="26"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="61"/>
-      <c r="H7" s="61"/>
-      <c r="I7" s="61"/>
-      <c r="J7" s="61"/>
-      <c r="K7" s="61"/>
-      <c r="L7" s="61"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="56"/>
+      <c r="L7" s="56"/>
       <c r="M7" s="52"/>
       <c r="N7" s="52"/>
       <c r="O7" s="52"/>
@@ -7648,33 +7648,33 @@
       <c r="Q7" s="52"/>
       <c r="R7" s="52"/>
       <c r="S7" s="27"/>
-      <c r="V7" s="55"/>
+      <c r="V7" s="58"/>
     </row>
     <row r="8" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B8" s="17"/>
-      <c r="D8" s="60" t="s">
+      <c r="D8" s="55" t="s">
         <v>1200</v>
       </c>
-      <c r="E8" s="60" t="s">
+      <c r="E8" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="60" t="s">
+      <c r="F8" s="55" t="s">
         <v>347</v>
       </c>
-      <c r="G8" s="60" t="s">
+      <c r="G8" s="55" t="s">
         <v>1203</v>
       </c>
-      <c r="H8" s="60" t="s">
+      <c r="H8" s="55" t="s">
         <v>1205</v>
       </c>
-      <c r="I8" s="60" t="s">
+      <c r="I8" s="55" t="s">
         <v>1206</v>
       </c>
-      <c r="J8" s="60" t="s">
+      <c r="J8" s="55" t="s">
         <v>1208</v>
       </c>
-      <c r="K8" s="60"/>
-      <c r="L8" s="60"/>
+      <c r="K8" s="55"/>
+      <c r="L8" s="55"/>
       <c r="M8" s="50"/>
       <c r="N8" s="50"/>
       <c r="O8" s="50"/>
@@ -7682,38 +7682,38 @@
       <c r="Q8" s="50"/>
       <c r="R8" s="50"/>
       <c r="S8" s="18"/>
-      <c r="V8" s="55"/>
+      <c r="V8" s="58"/>
     </row>
     <row r="9" spans="1:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B9" s="19">
         <f>B5+1</f>
         <v>2</v>
       </c>
-      <c r="D9" s="59" t="s">
+      <c r="D9" s="54" t="s">
         <v>1173</v>
       </c>
-      <c r="E9" s="59" t="s">
+      <c r="E9" s="54" t="s">
         <v>1174</v>
       </c>
-      <c r="F9" s="59" t="s">
+      <c r="F9" s="54" t="s">
         <v>118</v>
       </c>
-      <c r="G9" s="59" t="s">
+      <c r="G9" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="H9" s="59" t="s">
+      <c r="H9" s="54" t="s">
         <v>1175</v>
       </c>
-      <c r="I9" s="59" t="s">
+      <c r="I9" s="54" t="s">
         <v>1176</v>
       </c>
-      <c r="J9" s="59" t="s">
+      <c r="J9" s="54" t="s">
         <v>1177</v>
       </c>
-      <c r="K9" s="59" t="s">
+      <c r="K9" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="L9" s="59" t="str">
+      <c r="L9" s="54" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
@@ -7726,7 +7726,7 @@
       <c r="R9" s="39"/>
       <c r="S9" s="20"/>
       <c r="T9" s="16"/>
-      <c r="V9" s="55"/>
+      <c r="V9" s="58"/>
     </row>
     <row r="10" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B10" s="21"/>
@@ -7760,53 +7760,53 @@
       <c r="Q10" s="51"/>
       <c r="R10" s="51"/>
       <c r="S10" s="29"/>
-      <c r="V10" s="55"/>
+      <c r="V10" s="58"/>
     </row>
     <row r="11" spans="1:22" s="27" customFormat="1" ht="60" customHeight="1">
       <c r="B11" s="30"/>
       <c r="C11" s="31"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="61"/>
-      <c r="F11" s="61"/>
-      <c r="G11" s="61"/>
-      <c r="H11" s="61"/>
-      <c r="I11" s="61"/>
-      <c r="J11" s="61"/>
-      <c r="K11" s="61"/>
-      <c r="L11" s="61"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="56"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="56"/>
+      <c r="L11" s="56"/>
       <c r="M11" s="52"/>
       <c r="N11" s="52"/>
       <c r="O11" s="52"/>
       <c r="P11" s="52"/>
       <c r="Q11" s="52"/>
       <c r="R11" s="52"/>
-      <c r="V11" s="55"/>
+      <c r="V11" s="58"/>
     </row>
     <row r="12" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B12" s="17"/>
-      <c r="D12" s="60" t="s">
+      <c r="D12" s="55" t="s">
         <v>345</v>
       </c>
-      <c r="E12" s="60" t="s">
+      <c r="E12" s="55" t="s">
         <v>1210</v>
       </c>
-      <c r="F12" s="60" t="s">
+      <c r="F12" s="55" t="s">
         <v>1211</v>
       </c>
-      <c r="G12" s="60" t="s">
+      <c r="G12" s="55" t="s">
         <v>1213</v>
       </c>
-      <c r="H12" s="60" t="s">
+      <c r="H12" s="55" t="s">
         <v>360</v>
       </c>
-      <c r="I12" s="60" t="s">
+      <c r="I12" s="55" t="s">
         <v>1216</v>
       </c>
-      <c r="J12" s="60" t="s">
+      <c r="J12" s="55" t="s">
         <v>348</v>
       </c>
-      <c r="K12" s="60"/>
-      <c r="L12" s="60"/>
+      <c r="K12" s="55"/>
+      <c r="L12" s="55"/>
       <c r="M12" s="50"/>
       <c r="N12" s="50"/>
       <c r="O12" s="50"/>
@@ -7814,38 +7814,38 @@
       <c r="Q12" s="50"/>
       <c r="R12" s="50"/>
       <c r="S12" s="18"/>
-      <c r="V12" s="55"/>
+      <c r="V12" s="58"/>
     </row>
     <row r="13" spans="1:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B13" s="19">
         <f>B9+1</f>
         <v>3</v>
       </c>
-      <c r="D13" s="59" t="s">
+      <c r="D13" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="59" t="s">
+      <c r="E13" s="54" t="s">
         <v>1178</v>
       </c>
-      <c r="F13" s="59" t="s">
+      <c r="F13" s="54" t="s">
         <v>1179</v>
       </c>
-      <c r="G13" s="59" t="s">
+      <c r="G13" s="54" t="s">
         <v>1180</v>
       </c>
-      <c r="H13" s="59" t="s">
+      <c r="H13" s="54" t="s">
         <v>134</v>
       </c>
-      <c r="I13" s="59" t="s">
+      <c r="I13" s="54" t="s">
         <v>1181</v>
       </c>
-      <c r="J13" s="59" t="s">
+      <c r="J13" s="54" t="s">
         <v>119</v>
       </c>
-      <c r="K13" s="59" t="s">
+      <c r="K13" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="L13" s="59" t="str">
+      <c r="L13" s="54" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
@@ -7857,7 +7857,7 @@
       <c r="Q13" s="39"/>
       <c r="R13" s="39"/>
       <c r="S13" s="20"/>
-      <c r="V13" s="55"/>
+      <c r="V13" s="58"/>
     </row>
     <row r="14" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B14" s="21"/>
@@ -7891,55 +7891,55 @@
       <c r="Q14" s="51"/>
       <c r="R14" s="51"/>
       <c r="S14" s="29"/>
-      <c r="V14" s="55"/>
+      <c r="V14" s="58"/>
     </row>
     <row r="15" spans="1:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B15" s="12"/>
       <c r="C15" s="32"/>
-      <c r="D15" s="61"/>
-      <c r="E15" s="61" t="s">
+      <c r="D15" s="56"/>
+      <c r="E15" s="56" t="s">
         <v>1258</v>
       </c>
-      <c r="F15" s="61"/>
-      <c r="G15" s="61"/>
-      <c r="H15" s="61"/>
-      <c r="I15" s="61"/>
-      <c r="J15" s="61"/>
-      <c r="K15" s="61"/>
-      <c r="L15" s="61"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="56"/>
+      <c r="H15" s="56"/>
+      <c r="I15" s="56"/>
+      <c r="J15" s="56"/>
+      <c r="K15" s="56"/>
+      <c r="L15" s="56"/>
       <c r="M15" s="52"/>
       <c r="N15" s="52"/>
       <c r="O15" s="52"/>
       <c r="P15" s="52"/>
       <c r="Q15" s="52"/>
       <c r="R15" s="52"/>
-      <c r="V15" s="55"/>
+      <c r="V15" s="58"/>
     </row>
     <row r="16" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B16" s="17"/>
-      <c r="D16" s="60" t="s">
+      <c r="D16" s="55" t="s">
         <v>1218</v>
       </c>
-      <c r="E16" s="60" t="s">
+      <c r="E16" s="55" t="s">
         <v>1258</v>
       </c>
-      <c r="F16" s="60" t="s">
+      <c r="F16" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="G16" s="60" t="s">
+      <c r="G16" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="H16" s="60" t="s">
+      <c r="H16" s="55" t="s">
         <v>1222</v>
       </c>
-      <c r="I16" s="60" t="s">
+      <c r="I16" s="55" t="s">
         <v>1224</v>
       </c>
-      <c r="J16" s="60" t="s">
+      <c r="J16" s="55" t="s">
         <v>1226</v>
       </c>
-      <c r="K16" s="60"/>
-      <c r="L16" s="60"/>
+      <c r="K16" s="55"/>
+      <c r="L16" s="55"/>
       <c r="M16" s="50"/>
       <c r="N16" s="50"/>
       <c r="O16" s="50"/>
@@ -7947,38 +7947,38 @@
       <c r="Q16" s="50"/>
       <c r="R16" s="50"/>
       <c r="S16" s="18"/>
-      <c r="V16" s="55"/>
+      <c r="V16" s="58"/>
     </row>
     <row r="17" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B17" s="19">
         <f>B13+1</f>
         <v>4</v>
       </c>
-      <c r="D17" s="59" t="s">
+      <c r="D17" s="54" t="s">
         <v>1182</v>
       </c>
-      <c r="E17" s="62" t="s">
+      <c r="E17" s="39" t="s">
         <v>1183</v>
       </c>
-      <c r="F17" s="59" t="s">
+      <c r="F17" s="54" t="s">
         <v>252</v>
       </c>
-      <c r="G17" s="59" t="s">
+      <c r="G17" s="54" t="s">
         <v>1184</v>
       </c>
-      <c r="H17" s="59" t="s">
+      <c r="H17" s="54" t="s">
         <v>1185</v>
       </c>
-      <c r="I17" s="59" t="s">
+      <c r="I17" s="54" t="s">
         <v>1186</v>
       </c>
-      <c r="J17" s="59" t="s">
+      <c r="J17" s="54" t="s">
         <v>1187</v>
       </c>
-      <c r="K17" s="59" t="s">
+      <c r="K17" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="L17" s="59" t="str">
+      <c r="L17" s="54" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
@@ -7990,7 +7990,7 @@
       <c r="Q17" s="39"/>
       <c r="R17" s="39"/>
       <c r="S17" s="20"/>
-      <c r="V17" s="55"/>
+      <c r="V17" s="58"/>
     </row>
     <row r="18" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B18" s="21"/>
@@ -8024,53 +8024,53 @@
       <c r="Q18" s="51"/>
       <c r="R18" s="51"/>
       <c r="S18" s="29"/>
-      <c r="V18" s="55"/>
+      <c r="V18" s="58"/>
     </row>
     <row r="19" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B19" s="12"/>
       <c r="C19" s="32"/>
-      <c r="D19" s="61"/>
-      <c r="E19" s="61"/>
-      <c r="F19" s="61"/>
-      <c r="G19" s="61"/>
-      <c r="H19" s="61"/>
-      <c r="I19" s="61"/>
-      <c r="J19" s="61"/>
-      <c r="K19" s="61"/>
-      <c r="L19" s="61"/>
+      <c r="D19" s="56"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="56"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="56"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="56"/>
+      <c r="L19" s="56"/>
       <c r="M19" s="52"/>
       <c r="N19" s="52"/>
       <c r="O19" s="52"/>
       <c r="P19" s="52"/>
       <c r="Q19" s="52"/>
       <c r="R19" s="52"/>
-      <c r="V19" s="55"/>
+      <c r="V19" s="58"/>
     </row>
     <row r="20" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B20" s="17"/>
-      <c r="D20" s="60" t="s">
+      <c r="D20" s="55" t="s">
         <v>303</v>
       </c>
-      <c r="E20" s="60" t="s">
+      <c r="E20" s="55" t="s">
         <v>389</v>
       </c>
-      <c r="F20" s="60" t="s">
+      <c r="F20" s="55" t="s">
         <v>387</v>
       </c>
-      <c r="G20" s="60" t="s">
+      <c r="G20" s="55" t="s">
         <v>1231</v>
       </c>
-      <c r="H20" s="60" t="s">
+      <c r="H20" s="55" t="s">
         <v>1233</v>
       </c>
-      <c r="I20" s="60" t="s">
+      <c r="I20" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="J20" s="60" t="s">
+      <c r="J20" s="55" t="s">
         <v>339</v>
       </c>
-      <c r="K20" s="60"/>
-      <c r="L20" s="60"/>
+      <c r="K20" s="55"/>
+      <c r="L20" s="55"/>
       <c r="M20" s="50"/>
       <c r="N20" s="50"/>
       <c r="O20" s="50"/>
@@ -8078,38 +8078,38 @@
       <c r="Q20" s="50"/>
       <c r="R20" s="50"/>
       <c r="S20" s="18"/>
-      <c r="V20" s="55"/>
+      <c r="V20" s="58"/>
     </row>
     <row r="21" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B21" s="19">
         <f>B17+1</f>
         <v>5</v>
       </c>
-      <c r="D21" s="59" t="s">
+      <c r="D21" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="E21" s="59" t="s">
+      <c r="E21" s="54" t="s">
         <v>170</v>
       </c>
-      <c r="F21" s="59" t="s">
+      <c r="F21" s="54" t="s">
         <v>168</v>
       </c>
-      <c r="G21" s="59" t="s">
+      <c r="G21" s="54" t="s">
         <v>1188</v>
       </c>
-      <c r="H21" s="59" t="s">
+      <c r="H21" s="54" t="s">
         <v>1189</v>
       </c>
-      <c r="I21" s="59" t="s">
+      <c r="I21" s="54" t="s">
         <v>1190</v>
       </c>
-      <c r="J21" s="59" t="s">
+      <c r="J21" s="54" t="s">
         <v>1191</v>
       </c>
-      <c r="K21" s="59" t="s">
+      <c r="K21" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="L21" s="59" t="str">
+      <c r="L21" s="54" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
@@ -8121,7 +8121,7 @@
       <c r="Q21" s="39"/>
       <c r="R21" s="39"/>
       <c r="S21" s="20"/>
-      <c r="V21" s="55"/>
+      <c r="V21" s="58"/>
     </row>
     <row r="22" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B22" s="21"/>
@@ -8155,12 +8155,12 @@
       <c r="Q22" s="51"/>
       <c r="R22" s="51"/>
       <c r="S22" s="29"/>
-      <c r="V22" s="55"/>
+      <c r="V22" s="58"/>
     </row>
     <row r="23" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B23" s="12"/>
       <c r="C23" s="32"/>
-      <c r="D23" s="61"/>
+      <c r="D23" s="56"/>
       <c r="E23" s="52"/>
       <c r="F23" s="52"/>
       <c r="G23" s="52"/>
@@ -8175,11 +8175,11 @@
       <c r="P23" s="52"/>
       <c r="Q23" s="52"/>
       <c r="R23" s="52"/>
-      <c r="V23" s="55"/>
+      <c r="V23" s="58"/>
     </row>
     <row r="24" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B24" s="17"/>
-      <c r="D24" s="60"/>
+      <c r="D24" s="55"/>
       <c r="E24" s="50"/>
       <c r="F24" s="50"/>
       <c r="G24" s="50"/>
@@ -8195,14 +8195,14 @@
       <c r="Q24" s="50"/>
       <c r="R24" s="50"/>
       <c r="S24" s="18"/>
-      <c r="V24" s="55"/>
+      <c r="V24" s="58"/>
     </row>
     <row r="25" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B25" s="19">
         <f>B21+1</f>
         <v>6</v>
       </c>
-      <c r="D25" s="59" t="s">
+      <c r="D25" s="54" t="s">
         <v>38</v>
       </c>
       <c r="E25" s="39"/>
@@ -8220,7 +8220,7 @@
       <c r="Q25" s="39"/>
       <c r="R25" s="39"/>
       <c r="S25" s="20"/>
-      <c r="V25" s="55"/>
+      <c r="V25" s="58"/>
     </row>
     <row r="26" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B26" s="21"/>
@@ -8240,7 +8240,7 @@
       <c r="Q26" s="51"/>
       <c r="R26" s="51"/>
       <c r="S26" s="29"/>
-      <c r="V26" s="55"/>
+      <c r="V26" s="58"/>
     </row>
     <row r="27" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B27" s="12"/>
@@ -8260,7 +8260,7 @@
       <c r="P27" s="52"/>
       <c r="Q27" s="52"/>
       <c r="R27" s="52"/>
-      <c r="V27" s="55"/>
+      <c r="V27" s="58"/>
     </row>
     <row r="28" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B28" s="17"/>
@@ -8281,7 +8281,7 @@
       <c r="R28" s="50"/>
       <c r="S28" s="18"/>
       <c r="U28" s="33"/>
-      <c r="V28" s="55"/>
+      <c r="V28" s="58"/>
     </row>
     <row r="29" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B29" s="19">
@@ -8305,7 +8305,7 @@
       <c r="R29" s="39"/>
       <c r="S29" s="20"/>
       <c r="U29" s="33"/>
-      <c r="V29" s="55"/>
+      <c r="V29" s="58"/>
     </row>
     <row r="30" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B30" s="21"/>
@@ -8326,7 +8326,7 @@
       <c r="R30" s="51"/>
       <c r="S30" s="29"/>
       <c r="U30" s="33"/>
-      <c r="V30" s="55"/>
+      <c r="V30" s="58"/>
     </row>
     <row r="31" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B31" s="12"/>
@@ -8346,7 +8346,7 @@
       <c r="P31" s="52"/>
       <c r="Q31" s="52"/>
       <c r="R31" s="52"/>
-      <c r="V31" s="55"/>
+      <c r="V31" s="58"/>
     </row>
     <row r="32" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B32" s="17"/>
@@ -8367,7 +8367,7 @@
       <c r="R32" s="50"/>
       <c r="S32" s="18"/>
       <c r="U32" s="33"/>
-      <c r="V32" s="55"/>
+      <c r="V32" s="58"/>
     </row>
     <row r="33" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B33" s="19">
@@ -8390,7 +8390,7 @@
       <c r="Q33" s="39"/>
       <c r="R33" s="39"/>
       <c r="S33" s="20"/>
-      <c r="V33" s="55"/>
+      <c r="V33" s="58"/>
     </row>
     <row r="34" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B34" s="21"/>
@@ -8410,7 +8410,7 @@
       <c r="Q34" s="51"/>
       <c r="R34" s="51"/>
       <c r="S34" s="29"/>
-      <c r="V34" s="55"/>
+      <c r="V34" s="58"/>
     </row>
     <row r="35" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B35" s="12"/>
@@ -8430,7 +8430,7 @@
       <c r="P35" s="52"/>
       <c r="Q35" s="52"/>
       <c r="R35" s="52"/>
-      <c r="V35" s="55"/>
+      <c r="V35" s="58"/>
     </row>
     <row r="36" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B36" s="17"/>
@@ -8450,7 +8450,7 @@
       <c r="Q36" s="50"/>
       <c r="R36" s="50"/>
       <c r="S36" s="18"/>
-      <c r="V36" s="55"/>
+      <c r="V36" s="58"/>
     </row>
     <row r="37" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B37" s="19">
@@ -8473,7 +8473,7 @@
       <c r="Q37" s="39"/>
       <c r="R37" s="39"/>
       <c r="S37" s="20"/>
-      <c r="V37" s="55"/>
+      <c r="V37" s="58"/>
     </row>
     <row r="38" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B38" s="21"/>
@@ -8493,7 +8493,7 @@
       <c r="Q38" s="51"/>
       <c r="R38" s="51"/>
       <c r="S38" s="29"/>
-      <c r="V38" s="55"/>
+      <c r="V38" s="58"/>
     </row>
     <row r="39" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B39" s="12"/>
@@ -8513,7 +8513,7 @@
       <c r="P39" s="52"/>
       <c r="Q39" s="52"/>
       <c r="R39" s="52"/>
-      <c r="V39" s="55"/>
+      <c r="V39" s="58"/>
     </row>
     <row r="40" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B40" s="17"/>
@@ -8533,7 +8533,7 @@
       <c r="Q40" s="50"/>
       <c r="R40" s="50"/>
       <c r="S40" s="18"/>
-      <c r="V40" s="55"/>
+      <c r="V40" s="58"/>
     </row>
     <row r="41" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B41" s="19">
@@ -8556,7 +8556,7 @@
       <c r="Q41" s="39"/>
       <c r="R41" s="39"/>
       <c r="S41" s="20"/>
-      <c r="V41" s="55"/>
+      <c r="V41" s="58"/>
     </row>
     <row r="42" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B42" s="21"/>
@@ -8576,7 +8576,7 @@
       <c r="Q42" s="51"/>
       <c r="R42" s="51"/>
       <c r="S42" s="29"/>
-      <c r="V42" s="55"/>
+      <c r="V42" s="58"/>
     </row>
     <row r="43" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B43" s="12"/>
@@ -8596,7 +8596,7 @@
       <c r="P43" s="52"/>
       <c r="Q43" s="52"/>
       <c r="R43" s="52"/>
-      <c r="V43" s="55"/>
+      <c r="V43" s="58"/>
     </row>
     <row r="44" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B44" s="17"/>
@@ -8616,7 +8616,7 @@
       <c r="Q44" s="50"/>
       <c r="R44" s="50"/>
       <c r="S44" s="18"/>
-      <c r="V44" s="55"/>
+      <c r="V44" s="58"/>
     </row>
     <row r="45" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B45" s="19">
@@ -8639,7 +8639,7 @@
       <c r="Q45" s="39"/>
       <c r="R45" s="39"/>
       <c r="S45" s="20"/>
-      <c r="V45" s="55"/>
+      <c r="V45" s="58"/>
     </row>
     <row r="46" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B46" s="21"/>
@@ -8659,7 +8659,7 @@
       <c r="Q46" s="51"/>
       <c r="R46" s="51"/>
       <c r="S46" s="29"/>
-      <c r="V46" s="55"/>
+      <c r="V46" s="58"/>
     </row>
     <row r="47" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B47" s="12"/>
@@ -8679,7 +8679,7 @@
       <c r="P47" s="52"/>
       <c r="Q47" s="52"/>
       <c r="R47" s="52"/>
-      <c r="V47" s="55"/>
+      <c r="V47" s="58"/>
     </row>
     <row r="48" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B48" s="17"/>
@@ -8699,7 +8699,7 @@
       <c r="Q48" s="50"/>
       <c r="R48" s="50"/>
       <c r="S48" s="18"/>
-      <c r="V48" s="55"/>
+      <c r="V48" s="58"/>
     </row>
     <row r="49" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B49" s="19">
@@ -8722,7 +8722,7 @@
       <c r="Q49" s="39"/>
       <c r="R49" s="39"/>
       <c r="S49" s="20"/>
-      <c r="V49" s="55"/>
+      <c r="V49" s="58"/>
     </row>
     <row r="50" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B50" s="21"/>
@@ -8742,7 +8742,7 @@
       <c r="Q50" s="51"/>
       <c r="R50" s="51"/>
       <c r="S50" s="29"/>
-      <c r="V50" s="55"/>
+      <c r="V50" s="58"/>
     </row>
     <row r="51" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B51" s="12"/>
@@ -8762,7 +8762,7 @@
       <c r="P51" s="52"/>
       <c r="Q51" s="52"/>
       <c r="R51" s="52"/>
-      <c r="V51" s="55"/>
+      <c r="V51" s="58"/>
     </row>
     <row r="52" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B52" s="17"/>
@@ -8782,7 +8782,7 @@
       <c r="Q52" s="50"/>
       <c r="R52" s="50"/>
       <c r="S52" s="18"/>
-      <c r="V52" s="55"/>
+      <c r="V52" s="58"/>
     </row>
     <row r="53" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B53" s="19">
@@ -8805,7 +8805,7 @@
       <c r="Q53" s="39"/>
       <c r="R53" s="39"/>
       <c r="S53" s="20"/>
-      <c r="V53" s="55"/>
+      <c r="V53" s="58"/>
     </row>
     <row r="54" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B54" s="21"/>
@@ -8825,7 +8825,7 @@
       <c r="Q54" s="51"/>
       <c r="R54" s="51"/>
       <c r="S54" s="29"/>
-      <c r="V54" s="55"/>
+      <c r="V54" s="58"/>
     </row>
     <row r="55" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B55" s="12"/>
@@ -8845,7 +8845,7 @@
       <c r="P55" s="52"/>
       <c r="Q55" s="52"/>
       <c r="R55" s="52"/>
-      <c r="V55" s="55"/>
+      <c r="V55" s="58"/>
     </row>
     <row r="56" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B56" s="17"/>
@@ -8865,7 +8865,7 @@
       <c r="Q56" s="50"/>
       <c r="R56" s="50"/>
       <c r="S56" s="18"/>
-      <c r="V56" s="55"/>
+      <c r="V56" s="58"/>
     </row>
     <row r="57" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B57" s="19">
@@ -8888,7 +8888,7 @@
       <c r="Q57" s="39"/>
       <c r="R57" s="39"/>
       <c r="S57" s="20"/>
-      <c r="V57" s="55"/>
+      <c r="V57" s="58"/>
     </row>
     <row r="58" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B58" s="21"/>
@@ -8908,7 +8908,7 @@
       <c r="Q58" s="51"/>
       <c r="R58" s="51"/>
       <c r="S58" s="29"/>
-      <c r="V58" s="55"/>
+      <c r="V58" s="58"/>
     </row>
     <row r="59" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B59" s="12"/>
@@ -8928,7 +8928,7 @@
       <c r="P59" s="52"/>
       <c r="Q59" s="52"/>
       <c r="R59" s="52"/>
-      <c r="V59" s="55"/>
+      <c r="V59" s="58"/>
     </row>
     <row r="60" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B60" s="17"/>
@@ -8948,7 +8948,7 @@
       <c r="Q60" s="50"/>
       <c r="R60" s="50"/>
       <c r="S60" s="18"/>
-      <c r="V60" s="55"/>
+      <c r="V60" s="58"/>
     </row>
     <row r="61" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B61" s="19">
@@ -8971,7 +8971,7 @@
       <c r="Q61" s="39"/>
       <c r="R61" s="39"/>
       <c r="S61" s="20"/>
-      <c r="V61" s="55"/>
+      <c r="V61" s="58"/>
     </row>
     <row r="62" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B62" s="21"/>
@@ -8991,7 +8991,7 @@
       <c r="Q62" s="51"/>
       <c r="R62" s="51"/>
       <c r="S62" s="29"/>
-      <c r="V62" s="55"/>
+      <c r="V62" s="58"/>
     </row>
     <row r="63" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B63" s="12"/>
@@ -9011,7 +9011,7 @@
       <c r="P63" s="52"/>
       <c r="Q63" s="52"/>
       <c r="R63" s="52"/>
-      <c r="V63" s="55"/>
+      <c r="V63" s="58"/>
     </row>
     <row r="64" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B64" s="17"/>
@@ -9031,7 +9031,7 @@
       <c r="Q64" s="50"/>
       <c r="R64" s="50"/>
       <c r="S64" s="18"/>
-      <c r="V64" s="55"/>
+      <c r="V64" s="58"/>
     </row>
     <row r="65" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B65" s="19">
@@ -9054,7 +9054,7 @@
       <c r="Q65" s="39"/>
       <c r="R65" s="39"/>
       <c r="S65" s="20"/>
-      <c r="V65" s="55"/>
+      <c r="V65" s="58"/>
     </row>
     <row r="66" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B66" s="21"/>
@@ -9074,7 +9074,7 @@
       <c r="Q66" s="51"/>
       <c r="R66" s="51"/>
       <c r="S66" s="29"/>
-      <c r="V66" s="55"/>
+      <c r="V66" s="58"/>
     </row>
     <row r="67" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B67" s="12"/>
@@ -9094,7 +9094,7 @@
       <c r="P67" s="52"/>
       <c r="Q67" s="52"/>
       <c r="R67" s="52"/>
-      <c r="V67" s="55"/>
+      <c r="V67" s="58"/>
     </row>
     <row r="68" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B68" s="17"/>
@@ -9114,7 +9114,7 @@
       <c r="Q68" s="50"/>
       <c r="R68" s="50"/>
       <c r="S68" s="18"/>
-      <c r="V68" s="55"/>
+      <c r="V68" s="58"/>
     </row>
     <row r="69" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B69" s="19">
@@ -9137,7 +9137,7 @@
       <c r="Q69" s="39"/>
       <c r="R69" s="39"/>
       <c r="S69" s="20"/>
-      <c r="V69" s="55"/>
+      <c r="V69" s="58"/>
     </row>
     <row r="70" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B70" s="21"/>
@@ -9157,7 +9157,7 @@
       <c r="Q70" s="51"/>
       <c r="R70" s="51"/>
       <c r="S70" s="29"/>
-      <c r="V70" s="55"/>
+      <c r="V70" s="58"/>
     </row>
     <row r="71" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B71" s="12"/>
@@ -9177,7 +9177,7 @@
       <c r="P71" s="52"/>
       <c r="Q71" s="52"/>
       <c r="R71" s="52"/>
-      <c r="V71" s="55"/>
+      <c r="V71" s="58"/>
     </row>
     <row r="72" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B72" s="17"/>
@@ -9197,7 +9197,7 @@
       <c r="Q72" s="50"/>
       <c r="R72" s="50"/>
       <c r="S72" s="18"/>
-      <c r="V72" s="55"/>
+      <c r="V72" s="58"/>
     </row>
     <row r="73" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B73" s="19">
@@ -9220,7 +9220,7 @@
       <c r="Q73" s="39"/>
       <c r="R73" s="39"/>
       <c r="S73" s="20"/>
-      <c r="V73" s="55"/>
+      <c r="V73" s="58"/>
     </row>
     <row r="74" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B74" s="21"/>
@@ -9240,7 +9240,7 @@
       <c r="Q74" s="51"/>
       <c r="R74" s="51"/>
       <c r="S74" s="29"/>
-      <c r="V74" s="55"/>
+      <c r="V74" s="58"/>
     </row>
     <row r="75" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B75" s="12"/>
@@ -9260,7 +9260,7 @@
       <c r="P75" s="52"/>
       <c r="Q75" s="52"/>
       <c r="R75" s="52"/>
-      <c r="V75" s="55"/>
+      <c r="V75" s="58"/>
     </row>
     <row r="76" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B76" s="17"/>
@@ -9280,7 +9280,7 @@
       <c r="Q76" s="50"/>
       <c r="R76" s="50"/>
       <c r="S76" s="18"/>
-      <c r="V76" s="55"/>
+      <c r="V76" s="58"/>
     </row>
     <row r="77" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B77" s="19">
@@ -9303,7 +9303,7 @@
       <c r="Q77" s="39"/>
       <c r="R77" s="39"/>
       <c r="S77" s="20"/>
-      <c r="V77" s="55"/>
+      <c r="V77" s="58"/>
     </row>
     <row r="78" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B78" s="21"/>
@@ -9323,7 +9323,7 @@
       <c r="Q78" s="51"/>
       <c r="R78" s="51"/>
       <c r="S78" s="29"/>
-      <c r="V78" s="55"/>
+      <c r="V78" s="58"/>
     </row>
     <row r="79" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B79" s="12"/>
@@ -9343,7 +9343,7 @@
       <c r="P79" s="52"/>
       <c r="Q79" s="52"/>
       <c r="R79" s="52"/>
-      <c r="V79" s="55"/>
+      <c r="V79" s="58"/>
     </row>
     <row r="80" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B80" s="17"/>
@@ -9363,7 +9363,7 @@
       <c r="Q80" s="50"/>
       <c r="R80" s="50"/>
       <c r="S80" s="18"/>
-      <c r="V80" s="55"/>
+      <c r="V80" s="58"/>
     </row>
     <row r="81" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B81" s="19">
@@ -9386,7 +9386,7 @@
       <c r="Q81" s="39"/>
       <c r="R81" s="39"/>
       <c r="S81" s="20"/>
-      <c r="V81" s="55"/>
+      <c r="V81" s="58"/>
     </row>
     <row r="82" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B82" s="21"/>
@@ -9406,7 +9406,7 @@
       <c r="Q82" s="51"/>
       <c r="R82" s="51"/>
       <c r="S82" s="29"/>
-      <c r="V82" s="56"/>
+      <c r="V82" s="59"/>
     </row>
     <row r="83" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B83" s="12"/>
@@ -51860,7 +51860,7 @@
       <c r="Q3" s="52"/>
       <c r="R3" s="52"/>
       <c r="T3" s="16"/>
-      <c r="V3" s="54" t="s">
+      <c r="V3" s="57" t="s">
         <v>66</v>
       </c>
     </row>
@@ -51908,7 +51908,7 @@
       </c>
       <c r="R4" s="50"/>
       <c r="S4" s="18"/>
-      <c r="V4" s="57"/>
+      <c r="V4" s="60"/>
     </row>
     <row r="5" spans="1:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B5" s="19">
@@ -51960,7 +51960,7 @@
         <v>30</v>
       </c>
       <c r="S5" s="20"/>
-      <c r="V5" s="57"/>
+      <c r="V5" s="60"/>
     </row>
     <row r="6" spans="1:22" s="24" customFormat="1" ht="36" customHeight="1">
       <c r="B6" s="21"/>
@@ -52007,7 +52007,7 @@
       </c>
       <c r="R6" s="51"/>
       <c r="S6" s="23"/>
-      <c r="V6" s="57"/>
+      <c r="V6" s="60"/>
     </row>
     <row r="7" spans="1:22" s="28" customFormat="1" ht="60" customHeight="1">
       <c r="B7" s="25"/>
@@ -52028,7 +52028,7 @@
       <c r="Q7" s="52"/>
       <c r="R7" s="52"/>
       <c r="S7" s="27"/>
-      <c r="V7" s="57"/>
+      <c r="V7" s="60"/>
     </row>
     <row r="8" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B8" s="17"/>
@@ -52072,7 +52072,7 @@
         <v>553</v>
       </c>
       <c r="S8" s="18"/>
-      <c r="V8" s="57"/>
+      <c r="V8" s="60"/>
     </row>
     <row r="9" spans="1:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B9" s="19">
@@ -52126,7 +52126,7 @@
       </c>
       <c r="S9" s="20"/>
       <c r="T9" s="16"/>
-      <c r="V9" s="57"/>
+      <c r="V9" s="60"/>
     </row>
     <row r="10" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B10" s="21"/>
@@ -52170,7 +52170,7 @@
         <v>554</v>
       </c>
       <c r="S10" s="29"/>
-      <c r="V10" s="57"/>
+      <c r="V10" s="60"/>
     </row>
     <row r="11" spans="1:22" s="27" customFormat="1" ht="60" customHeight="1">
       <c r="B11" s="30"/>
@@ -52190,7 +52190,7 @@
       <c r="P11" s="52"/>
       <c r="Q11" s="52"/>
       <c r="R11" s="52"/>
-      <c r="V11" s="57"/>
+      <c r="V11" s="60"/>
     </row>
     <row r="12" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B12" s="17"/>
@@ -52236,7 +52236,7 @@
         <v>579</v>
       </c>
       <c r="S12" s="18"/>
-      <c r="V12" s="57"/>
+      <c r="V12" s="60"/>
     </row>
     <row r="13" spans="1:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B13" s="19">
@@ -52289,7 +52289,7 @@
         <v>99</v>
       </c>
       <c r="S13" s="20"/>
-      <c r="V13" s="57"/>
+      <c r="V13" s="60"/>
     </row>
     <row r="14" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B14" s="21"/>
@@ -52335,7 +52335,7 @@
         <v>580</v>
       </c>
       <c r="S14" s="29"/>
-      <c r="V14" s="57"/>
+      <c r="V14" s="60"/>
     </row>
     <row r="15" spans="1:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B15" s="12"/>
@@ -52355,7 +52355,7 @@
       <c r="P15" s="52"/>
       <c r="Q15" s="52"/>
       <c r="R15" s="52"/>
-      <c r="V15" s="57"/>
+      <c r="V15" s="60"/>
     </row>
     <row r="16" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B16" s="17"/>
@@ -52401,7 +52401,7 @@
       </c>
       <c r="R16" s="50"/>
       <c r="S16" s="18"/>
-      <c r="V16" s="57"/>
+      <c r="V16" s="60"/>
     </row>
     <row r="17" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B17" s="19">
@@ -52454,7 +52454,7 @@
         <v>30</v>
       </c>
       <c r="S17" s="20"/>
-      <c r="V17" s="57"/>
+      <c r="V17" s="60"/>
     </row>
     <row r="18" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B18" s="21"/>
@@ -52500,7 +52500,7 @@
       </c>
       <c r="R18" s="51"/>
       <c r="S18" s="29"/>
-      <c r="V18" s="57"/>
+      <c r="V18" s="60"/>
     </row>
     <row r="19" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B19" s="12"/>
@@ -52520,7 +52520,7 @@
       <c r="P19" s="52"/>
       <c r="Q19" s="52"/>
       <c r="R19" s="52"/>
-      <c r="V19" s="57"/>
+      <c r="V19" s="60"/>
     </row>
     <row r="20" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B20" s="17"/>
@@ -52540,7 +52540,7 @@
       <c r="Q20" s="50"/>
       <c r="R20" s="50"/>
       <c r="S20" s="18"/>
-      <c r="V20" s="57"/>
+      <c r="V20" s="60"/>
     </row>
     <row r="21" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B21" s="19">
@@ -52567,7 +52567,7 @@
       <c r="Q21" s="39"/>
       <c r="R21" s="39"/>
       <c r="S21" s="20"/>
-      <c r="V21" s="57"/>
+      <c r="V21" s="60"/>
     </row>
     <row r="22" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B22" s="21"/>
@@ -52587,7 +52587,7 @@
       <c r="Q22" s="51"/>
       <c r="R22" s="51"/>
       <c r="S22" s="29"/>
-      <c r="V22" s="58"/>
+      <c r="V22" s="61"/>
     </row>
     <row r="23" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B23" s="12"/>
